--- a/Code/Results/Cases/Case_2_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_58/res_line/loading_percent.xlsx
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.2169480385347</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.12018204701069</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>26.78544435617555</v>
+        <v>26.78544435617554</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -460,7 +460,7 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>29.56389055882488</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>34.45877994146108</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -476,7 +476,7 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847225</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -492,7 +492,7 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>39.67592721363783</v>
+        <v>39.67592721363781</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -500,7 +500,7 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>39.56266403258221</v>
+        <v>39.5626640325822</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -508,7 +508,7 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>39.19167637503955</v>
+        <v>39.19167637503946</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -516,7 +516,7 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>38.9631930912341</v>
+        <v>38.96319309123408</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -524,7 +524,7 @@
         <v>14</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>37.63463543028811</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -548,7 +548,7 @@
         <v>17</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>36.15172494150062</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -556,7 +556,7 @@
         <v>18</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.89155697731403</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -564,7 +564,7 @@
         <v>19</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>39.30090300329766</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -580,7 +580,7 @@
         <v>21</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>40.0141422503843</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -588,7 +588,7 @@
         <v>22</v>
       </c>
       <c r="F24">
-        <v>36.85121910575425</v>
+        <v>36.85121910575429</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -596,7 +596,7 @@
         <v>23</v>
       </c>
       <c r="F25">
-        <v>33.19272459126713</v>
+        <v>33.19272459126709</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_58/res_line/loading_percent.xlsx
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>26.21694803853472</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>26.12018204701069</v>
+        <v>26.12018204701068</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>26.78544435617554</v>
+        <v>26.78544435617555</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -460,7 +460,7 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>29.56389055882488</v>
+        <v>29.56389055882486</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>34.45877994146108</v>
+        <v>34.4587799414611</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -476,7 +476,7 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>37.72874519847225</v>
+        <v>37.72874519847221</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -492,7 +492,7 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363783</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -500,7 +500,7 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>39.56266403258221</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -508,7 +508,7 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503955</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -516,7 +516,7 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>38.96319309123408</v>
+        <v>38.9631930912341</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -524,7 +524,7 @@
         <v>14</v>
       </c>
       <c r="F16">
-        <v>37.63463543028811</v>
+        <v>37.6346354302881</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -548,7 +548,7 @@
         <v>17</v>
       </c>
       <c r="F19">
-        <v>36.15172494150062</v>
+        <v>36.15172494150058</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -556,7 +556,7 @@
         <v>18</v>
       </c>
       <c r="F20">
-        <v>36.89155697731403</v>
+        <v>36.89155697731401</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -564,7 +564,7 @@
         <v>19</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>39.30090300329764</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -580,7 +580,7 @@
         <v>21</v>
       </c>
       <c r="F23">
-        <v>40.0141422503843</v>
+        <v>40.01414225038425</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -588,7 +588,7 @@
         <v>22</v>
       </c>
       <c r="F24">
-        <v>36.85121910575429</v>
+        <v>36.85121910575425</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -596,7 +596,7 @@
         <v>23</v>
       </c>
       <c r="F25">
-        <v>33.19272459126709</v>
+        <v>33.19272459126713</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_58/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,7 +418,7 @@
         <v>30.27884324296193</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -423,7 +426,7 @@
         <v>28.1630198432674</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -431,7 +434,7 @@
         <v>26.79314218379239</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -439,7 +442,7 @@
         <v>26.21694803853472</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -447,7 +450,7 @@
         <v>26.12018204701068</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -455,7 +458,7 @@
         <v>26.78544435617555</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -463,7 +466,7 @@
         <v>29.56389055882486</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -471,7 +474,7 @@
         <v>34.4587799414611</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -479,7 +482,7 @@
         <v>37.72874519847221</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -487,7 +490,7 @@
         <v>39.14805722232859</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -495,7 +498,7 @@
         <v>39.67592721363783</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -503,7 +506,7 @@
         <v>39.56266403258221</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -511,7 +514,7 @@
         <v>39.19167637503955</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -519,7 +522,7 @@
         <v>38.9631930912341</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_2_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_58/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,197 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
+      </c>
+      <c r="B2">
+        <v>34.46235564657988</v>
+      </c>
+      <c r="C2">
+        <v>27.60204155252937</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>31.06455290265112</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="G2">
+        <v>1.988554468636949</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>13.37535986968121</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>31.75019306899981</v>
+      </c>
+      <c r="C3">
+        <v>25.40622663829043</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>28.53301143879693</v>
+      </c>
       <c r="F3">
-        <v>28.1630198432674</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>28.16301984326747</v>
+      </c>
+      <c r="G3">
+        <v>2.010023728481782</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>13.42874316195057</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>30.03496449697595</v>
+      </c>
+      <c r="C4">
+        <v>24.01981493658732</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>26.94464520228218</v>
+      </c>
       <c r="F4">
-        <v>26.79314218379239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>26.79314218379242</v>
+      </c>
+      <c r="G4">
+        <v>2.023119275590051</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>13.47239738988376</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>29.32212277458764</v>
+      </c>
+      <c r="C5">
+        <v>23.44405242504615</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>26.28708785295872</v>
+      </c>
       <c r="F5">
         <v>26.21694803853472</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="G5">
+        <v>2.02845358839366</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>13.4925946843998</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>29.20288432182707</v>
+      </c>
+      <c r="C6">
+        <v>23.347765051987</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>26.1772349258935</v>
+      </c>
       <c r="F6">
         <v>26.12018204701068</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="G6">
+        <v>2.029339718543269</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>13.49608532759235</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>30.02540858955381</v>
+      </c>
+      <c r="C7">
+        <v>24.01209510442765</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>26.93582086344066</v>
+      </c>
       <c r="F7">
-        <v>26.78544435617555</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>26.78544435617551</v>
+      </c>
+      <c r="G7">
+        <v>2.023191201717265</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>13.47266042065997</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>33.53669575066923</v>
+      </c>
+      <c r="C8">
+        <v>26.85205848550248</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>30.19757415254565</v>
+      </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="G8">
+        <v>1.995988048758683</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>13.39129323182369</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>40.10260017688408</v>
+      </c>
+      <c r="C9">
+        <v>32.18729523644275</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>36.42635222368757</v>
+      </c>
       <c r="F9">
-        <v>34.4587799414611</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>34.45877994148619</v>
+      </c>
+      <c r="G9">
+        <v>1.940816236675257</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>13.33663691073913</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>44.8805155168848</v>
+      </c>
+      <c r="C10">
+        <v>36.0981896215721</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>41.10291085968573</v>
+      </c>
       <c r="F10">
-        <v>37.72874519847221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>37.72874519847369</v>
+      </c>
+      <c r="G10">
+        <v>1.896950746278403</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>13.39531224054704</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>47.0977240397826</v>
+      </c>
+      <c r="C11">
+        <v>37.92366822731724</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>43.32741741106788</v>
+      </c>
       <c r="F11">
-        <v>39.14805722232859</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>39.1480572223286</v>
+      </c>
+      <c r="G11">
+        <v>1.875469297788404</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>13.45542236547938</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>47.95085038963631</v>
+      </c>
+      <c r="C12">
+        <v>38.62814198010082</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>44.19421873547182</v>
+      </c>
       <c r="F12">
-        <v>39.67592721363783</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>39.67592721363786</v>
+      </c>
+      <c r="G12">
+        <v>1.867006352003491</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>13.48453557382184</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>47.76635829930931</v>
+      </c>
+      <c r="C13">
+        <v>38.47569343977332</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>44.00622315011782</v>
+      </c>
       <c r="F13">
-        <v>39.56266403258221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>39.5626640326014</v>
+      </c>
+      <c r="G13">
+        <v>1.868845939100619</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>13.47795082999898</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>47.16758604023607</v>
+      </c>
+      <c r="C14">
+        <v>37.98131190383346</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>43.39816028666053</v>
+      </c>
       <c r="F14">
-        <v>39.19167637503955</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>39.1916763750395</v>
+      </c>
+      <c r="G14">
+        <v>1.874780446225543</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>13.45767891581199</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>46.80285576971536</v>
+      </c>
+      <c r="C15">
+        <v>37.68045714968297</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>43.02928856114514</v>
+      </c>
       <c r="F15">
-        <v>38.9631930912341</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>38.96319309154521</v>
+      </c>
+      <c r="G15">
+        <v>1.878368597656373</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>13.44614627709014</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>44.73703977462885</v>
+      </c>
+      <c r="C16">
+        <v>35.98031517186872</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>40.96026961577876</v>
+      </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>1.898315700555909</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>13.39217418217955</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>43.48511287570271</v>
+      </c>
+      <c r="C17">
+        <v>34.95299295264989</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>39.72184733720931</v>
+      </c>
       <c r="F17">
-        <v>36.8022877826839</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>36.80228778268393</v>
+      </c>
+      <c r="G17">
+        <v>1.91009861429891</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>13.36853686892304</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>42.76858236304781</v>
+      </c>
+      <c r="C18">
+        <v>34.36595592284756</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>39.01784803596409</v>
+      </c>
       <c r="F18">
-        <v>36.31710943239624</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>36.31710943239621</v>
+      </c>
+      <c r="G18">
+        <v>1.916740707364902</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>13.35796724436783</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>42.52641580543001</v>
+      </c>
+      <c r="C19">
+        <v>34.16770315067684</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>38.78067054949263</v>
+      </c>
       <c r="F19">
-        <v>36.15172494150058</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>36.1517249415763</v>
+      </c>
+      <c r="G19">
+        <v>1.918968957290099</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>13.35487087100009</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>43.61797362823918</v>
+      </c>
+      <c r="C20">
+        <v>35.061916546544</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>39.85275954001237</v>
+      </c>
       <c r="F20">
         <v>36.89155697731401</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <v>1.908858921145532</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>13.37073072133082</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>47.34301751126023</v>
+      </c>
+      <c r="C21">
+        <v>38.12609694071716</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>43.5759890134237</v>
+      </c>
       <c r="F21">
-        <v>39.30090300329764</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>39.30090300329779</v>
+      </c>
+      <c r="G21">
+        <v>1.87304738960676</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>13.46344513701268</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>49.8628486374366</v>
+      </c>
+      <c r="C22">
+        <v>40.2115914336493</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>46.1614815911001</v>
+      </c>
       <c r="F22">
-        <v>40.81974568026789</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>40.81974568026781</v>
+      </c>
+      <c r="G22">
+        <v>1.847630058185417</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>13.56237475322285</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>48.50669031787822</v>
+      </c>
+      <c r="C23">
+        <v>39.08779435041653</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>44.76249719428387</v>
+      </c>
       <c r="F23">
-        <v>40.01414225038425</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>40.01414225038423</v>
+      </c>
+      <c r="G23">
+        <v>1.861432284404518</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>13.50534901855421</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>43.55789774567213</v>
+      </c>
+      <c r="C24">
+        <v>35.01266146784302</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>39.79354996087744</v>
+      </c>
       <c r="F24">
-        <v>36.85121910575425</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>36.85121910575583</v>
+      </c>
+      <c r="G24">
+        <v>1.90941979039477</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>13.36972958071009</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>38.34796464742558</v>
+      </c>
+      <c r="C25">
+        <v>30.75768564846765</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>34.74230646519098</v>
+      </c>
       <c r="F25">
-        <v>33.19272459126713</v>
+        <v>33.19272459127059</v>
+      </c>
+      <c r="G25">
+        <v>1.956124715192403</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>13.33717622057109</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_58/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>34.46235564657988</v>
+        <v>12.12280379977642</v>
       </c>
       <c r="C2">
-        <v>27.60204155252937</v>
+        <v>7.3469777561268</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>31.06455290265112</v>
+        <v>14.3826229614016</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>1.988554468636949</v>
+        <v>29.15715620988263</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>10.44745998707505</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>15.95559247541636</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.16510022947117</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>14.43685800416923</v>
       </c>
       <c r="N2">
-        <v>13.37535986968121</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>31.75019306899981</v>
+        <v>11.35495061508537</v>
       </c>
       <c r="C3">
-        <v>25.40622663829043</v>
+        <v>6.880581198014794</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>28.53301143879693</v>
+        <v>13.51722412896324</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.010023728481782</v>
+        <v>28.75538197788773</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>10.50948236568285</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>16.09020233209144</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.52042356620965</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>13.49220028657606</v>
       </c>
       <c r="N3">
-        <v>13.42874316195057</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>30.03496449697595</v>
+        <v>10.85755004559432</v>
       </c>
       <c r="C4">
-        <v>24.01981493658732</v>
+        <v>6.579558868470749</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.94464520228218</v>
+        <v>12.97052983598705</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.023119275590051</v>
+        <v>28.54597487044279</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>10.55581604697763</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>16.18738440823201</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10.1048339961766</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>12.88214786061103</v>
       </c>
       <c r="N4">
-        <v>13.47239738988376</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>29.32212277458764</v>
+        <v>10.64832108357701</v>
       </c>
       <c r="C5">
-        <v>23.44405242504615</v>
+        <v>6.453192022878758</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26.28708785295872</v>
+        <v>12.74407737056263</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.02845358839366</v>
+        <v>28.46969028976865</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>10.57667271214016</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>16.23044595392441</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.930539984686384</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>12.62594840125024</v>
       </c>
       <c r="N5">
-        <v>13.4925946843998</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>29.20288432182707</v>
+        <v>10.61318395764861</v>
       </c>
       <c r="C6">
-        <v>23.347765051987</v>
+        <v>6.431985329896003</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26.1772349258935</v>
+        <v>12.70625992880663</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.029339718543269</v>
+        <v>28.45755981824873</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>10.58025242974415</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>16.23779972459063</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.901301547974265</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>12.58294661252009</v>
       </c>
       <c r="N6">
-        <v>13.49608532759235</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>30.02540858955381</v>
+        <v>10.85475477670526</v>
       </c>
       <c r="C7">
-        <v>24.01209510442765</v>
+        <v>6.577869625259944</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.93582086344066</v>
+        <v>12.96749039408159</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.023191201717265</v>
+        <v>28.54490987682484</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>10.55608945736827</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>16.18795139506179</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>10.10250334851321</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>12.87872348392769</v>
       </c>
       <c r="N7">
-        <v>13.47266042065997</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>33.53669575066923</v>
+        <v>11.86342038345786</v>
       </c>
       <c r="C8">
-        <v>26.85205848550248</v>
+        <v>7.189195161607759</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>30.19757415254565</v>
+        <v>14.08751211710326</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>1.995988048758683</v>
+        <v>29.01070063512434</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>10.46707119592913</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>15.99886929462987</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.94692898060749</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>14.11734055489162</v>
       </c>
       <c r="N8">
-        <v>13.39129323182369</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>40.10260017688408</v>
+        <v>13.63668615634945</v>
       </c>
       <c r="C9">
-        <v>32.18729523644275</v>
+        <v>8.272719191774209</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>36.42635222368757</v>
+        <v>16.23192710946599</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>1.940816236675257</v>
+        <v>30.23280852263106</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>10.36270290737342</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>15.75269977088488</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.44557022641747</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>16.31071293365078</v>
       </c>
       <c r="N9">
-        <v>13.33663691073913</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>44.8805155168848</v>
+        <v>14.81677380798095</v>
       </c>
       <c r="C10">
-        <v>36.0981896215721</v>
+        <v>9.000349484453809</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>41.10291085968573</v>
+        <v>17.84431141830854</v>
       </c>
       <c r="F10">
-        <v>37.72874519847369</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>1.896950746278403</v>
+        <v>31.33425925644575</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>10.33569767726317</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>15.66150357595663</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.45100807059971</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>17.78310462851207</v>
       </c>
       <c r="N10">
-        <v>13.39531224054704</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>47.0977240397826</v>
+        <v>15.32756877621284</v>
       </c>
       <c r="C11">
-        <v>37.92366822731724</v>
+        <v>9.317030143052364</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>43.32741741106788</v>
+        <v>18.54942751093646</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>1.875469297788404</v>
+        <v>31.88228068329302</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>10.33580091840284</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>15.6427012469967</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.88793391412025</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>18.42391504907559</v>
       </c>
       <c r="N11">
-        <v>13.45542236547938</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>47.95085038963631</v>
+        <v>15.51730612495294</v>
       </c>
       <c r="C12">
-        <v>38.62814198010082</v>
+        <v>9.434939555970354</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>44.19421873547182</v>
+        <v>18.81250660541063</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>1.867006352003491</v>
+        <v>32.09675192947415</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>10.33776209536014</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>15.6391265676355</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.05048057243354</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>18.662514424754</v>
       </c>
       <c r="N12">
-        <v>13.48453557382184</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>47.76635829930931</v>
+        <v>15.47660596368688</v>
       </c>
       <c r="C13">
-        <v>38.47569343977332</v>
+        <v>9.409634237576817</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>44.00622315011782</v>
+        <v>18.7560202463032</v>
       </c>
       <c r="F13">
-        <v>39.5626640326014</v>
+        <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>1.868845939100619</v>
+        <v>32.05024974562576</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10.33725192448988</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>15.63973410056451</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.01560193362569</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>18.61130660264362</v>
       </c>
       <c r="N13">
-        <v>13.47795082999898</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>47.16758604023607</v>
+        <v>15.34325219654293</v>
       </c>
       <c r="C14">
-        <v>37.98131190383346</v>
+        <v>9.326770617232867</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>43.39816028666053</v>
+        <v>18.5711491186768</v>
       </c>
       <c r="F14">
-        <v>39.1916763750395</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>1.874780446225543</v>
+        <v>31.89978505324962</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>10.33592291467702</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>15.64233442995125</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.90136477648391</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>18.44362551310944</v>
       </c>
       <c r="N14">
-        <v>13.45767891581199</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>46.80285576971536</v>
+        <v>15.26109037263215</v>
       </c>
       <c r="C15">
-        <v>37.68045714968297</v>
+        <v>9.275753959311789</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>43.02928856114514</v>
+        <v>18.45740261344412</v>
       </c>
       <c r="F15">
-        <v>38.96319309154521</v>
+        <v>38.96319309123409</v>
       </c>
       <c r="G15">
-        <v>1.878368597656373</v>
+        <v>31.80853140634167</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>10.33536345880912</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>15.64439756128536</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.83101369841173</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>18.34039041889704</v>
       </c>
       <c r="N15">
-        <v>13.44614627709014</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>44.73703977462885</v>
+        <v>14.78287276942496</v>
       </c>
       <c r="C16">
-        <v>35.98031517186872</v>
+        <v>8.979369497803717</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>40.96026961577876</v>
+        <v>17.79767174611778</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>37.63463543028809</v>
       </c>
       <c r="G16">
-        <v>1.898315700555909</v>
+        <v>31.29940668516397</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>10.33595208540934</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>15.66321272654658</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.42204502701869</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>17.74065172974947</v>
       </c>
       <c r="N16">
-        <v>13.39217418217955</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>43.48511287570271</v>
+        <v>14.48287045862892</v>
       </c>
       <c r="C17">
-        <v>34.95299295264989</v>
+        <v>8.793911845244564</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>39.72184733720931</v>
+        <v>17.38578197147815</v>
       </c>
       <c r="F17">
-        <v>36.80228778268393</v>
+        <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>1.91009861429891</v>
+        <v>30.99924629225027</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>10.33958407953299</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>15.68076239521121</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.1659384408473</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>17.36537952053373</v>
       </c>
       <c r="N17">
-        <v>13.36853686892304</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>42.76858236304781</v>
+        <v>14.307863111431</v>
       </c>
       <c r="C18">
-        <v>34.36595592284756</v>
+        <v>8.685890162262721</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>39.01784803596409</v>
+        <v>17.14619429077545</v>
       </c>
       <c r="F18">
-        <v>36.31710943239621</v>
+        <v>36.31710943239618</v>
       </c>
       <c r="G18">
-        <v>1.916740707364902</v>
+        <v>30.83101212534769</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>10.34283030458955</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>15.69297374127631</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.01670500189953</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>17.14679733971182</v>
       </c>
       <c r="N18">
-        <v>13.35796724436783</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>42.52641580543001</v>
+        <v>14.24818562368736</v>
       </c>
       <c r="C19">
-        <v>34.16770315067684</v>
+        <v>8.649082392526033</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>38.78067054949263</v>
+        <v>17.06460960938403</v>
       </c>
       <c r="F19">
-        <v>36.1517249415763</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>1.918968957290099</v>
+        <v>30.77480226181503</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>10.34412399167481</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>15.69746351355282</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.96584516740998</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>17.07231626219434</v>
       </c>
       <c r="N19">
-        <v>13.35487087100009</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>43.61797362823918</v>
+        <v>14.51505982126812</v>
       </c>
       <c r="C20">
-        <v>35.061916546544</v>
+        <v>8.813793653738816</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>39.85275954001237</v>
+        <v>17.42990466029861</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.89155697731404</v>
       </c>
       <c r="G20">
-        <v>1.908858921145532</v>
+        <v>31.0307410030905</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>10.33907668388172</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>15.67867306577134</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.19340072049879</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>17.40561026596547</v>
       </c>
       <c r="N20">
-        <v>13.37073072133082</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>47.34301751126023</v>
+        <v>15.38252110504697</v>
       </c>
       <c r="C21">
-        <v>38.12609694071716</v>
+        <v>9.351163821279439</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>43.5759890134237</v>
+        <v>18.62555575090773</v>
       </c>
       <c r="F21">
-        <v>39.30090300329779</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>1.87304738960676</v>
+        <v>31.94379013851952</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>10.33625995805797</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>15.64147210401688</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.93499760149736</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>18.49298683885637</v>
       </c>
       <c r="N21">
-        <v>13.46344513701268</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>49.8628486374366</v>
+        <v>15.92798076829173</v>
       </c>
       <c r="C22">
-        <v>40.2115914336493</v>
+        <v>9.690673538020436</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>46.1614815911001</v>
+        <v>19.38413721231045</v>
       </c>
       <c r="F22">
-        <v>40.81974568026781</v>
+        <v>40.81974568026789</v>
       </c>
       <c r="G22">
-        <v>1.847630058185417</v>
+        <v>32.58109960828575</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>10.34569246110992</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>15.63796516401399</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>14.40274765169551</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>19.18003364619312</v>
       </c>
       <c r="N22">
-        <v>13.56237475322285</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>48.50669031787822</v>
+        <v>15.63880433382594</v>
       </c>
       <c r="C23">
-        <v>39.08779435041653</v>
+        <v>9.510522981814676</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>44.76249719428387</v>
+        <v>18.98130599436321</v>
       </c>
       <c r="F23">
-        <v>40.01414225038423</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>1.861432284404518</v>
+        <v>32.23718090174053</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>10.33957842378998</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>15.637835990691</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.15463606620157</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>18.81546655495644</v>
       </c>
       <c r="N23">
-        <v>13.50534901855421</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>43.55789774567213</v>
+        <v>14.50051490110398</v>
       </c>
       <c r="C24">
-        <v>35.01266146784302</v>
+        <v>8.804809451203367</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>39.79354996087744</v>
+        <v>17.4099654836623</v>
       </c>
       <c r="F24">
-        <v>36.85121910575583</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>1.90941979039477</v>
+        <v>31.01648876571363</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>10.33930248067077</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>15.67961106396429</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.18099123824958</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>17.38743077864862</v>
       </c>
       <c r="N24">
-        <v>13.36972958071009</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>38.34796464742558</v>
+        <v>13.17870143936177</v>
       </c>
       <c r="C25">
-        <v>30.75768564846765</v>
+        <v>7.991771906736934</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>34.74230646519098</v>
+        <v>15.61211500432926</v>
       </c>
       <c r="F25">
-        <v>33.19272459127059</v>
+        <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>1.956124715192403</v>
+        <v>29.86744738521326</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>10.38273446488106</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>15.80459039312111</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>12.05700210113928</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>15.74213632145961</v>
       </c>
       <c r="N25">
-        <v>13.33717622057109</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_58/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.12280379977642</v>
+        <v>8.461437329925868</v>
       </c>
       <c r="C2">
-        <v>7.3469777561268</v>
+        <v>4.460189247900223</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.3826229614016</v>
+        <v>12.485333666567</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>29.15715620988263</v>
+        <v>34.37797511545209</v>
       </c>
       <c r="H2">
-        <v>10.44745998707505</v>
+        <v>15.67023792101732</v>
       </c>
       <c r="I2">
-        <v>15.95559247541636</v>
+        <v>22.8506990301772</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.16510022947117</v>
+        <v>8.66227387128604</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.43685800416923</v>
+        <v>13.74349141120732</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.35495061508537</v>
+        <v>8.195696921778865</v>
       </c>
       <c r="C3">
-        <v>6.880581198014794</v>
+        <v>4.220086105404775</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.51722412896324</v>
+        <v>12.2675410576749</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>28.75538197788773</v>
+        <v>34.4177185865039</v>
       </c>
       <c r="H3">
-        <v>10.50948236568285</v>
+        <v>15.72230577637472</v>
       </c>
       <c r="I3">
-        <v>16.09020233209144</v>
+        <v>22.94046083773067</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.52042356620965</v>
+        <v>8.492351832921162</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.49220028657606</v>
+        <v>13.58362259603142</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.85755004559432</v>
+        <v>8.029764301248322</v>
       </c>
       <c r="C4">
-        <v>6.579558868470749</v>
+        <v>4.064587014020219</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.97052983598705</v>
+        <v>12.13613561859007</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>28.54597487044279</v>
+        <v>34.45406274580446</v>
       </c>
       <c r="H4">
-        <v>10.55581604697763</v>
+        <v>15.75717084808058</v>
       </c>
       <c r="I4">
-        <v>16.18738440823201</v>
+        <v>23.00044431928093</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.1048339961766</v>
+        <v>8.388097393767175</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.88214786061103</v>
+        <v>13.48806807113769</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.64832108357701</v>
+        <v>7.961561047474669</v>
       </c>
       <c r="C5">
-        <v>6.453192022878758</v>
+        <v>3.99921506351468</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.74407737056263</v>
+        <v>12.08324729590299</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>28.46969028976865</v>
+        <v>34.47186061370317</v>
       </c>
       <c r="H5">
-        <v>10.57667271214016</v>
+        <v>15.77210524844285</v>
       </c>
       <c r="I5">
-        <v>16.23044595392441</v>
+        <v>23.02610900911351</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.930539984686384</v>
+        <v>8.345693092563481</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.62594840125024</v>
+        <v>13.44982839242391</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.61318395764861</v>
+        <v>7.95020406829768</v>
       </c>
       <c r="C6">
-        <v>6.431985329896003</v>
+        <v>3.988239882841035</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.70625992880663</v>
+        <v>12.07450735325043</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>28.45755981824873</v>
+        <v>34.47499587260494</v>
       </c>
       <c r="H6">
-        <v>10.58025242974415</v>
+        <v>15.77462893737493</v>
       </c>
       <c r="I6">
-        <v>16.23779972459063</v>
+        <v>23.03044425000672</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.901301547974265</v>
+        <v>8.338658525939424</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.58294661252009</v>
+        <v>13.44352224282314</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.85475477670526</v>
+        <v>8.028846701255398</v>
       </c>
       <c r="C7">
-        <v>6.577869625259944</v>
+        <v>4.063713464184683</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.96749039408159</v>
+        <v>12.13541957287557</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>28.54490987682484</v>
+        <v>34.45429070049706</v>
       </c>
       <c r="H7">
-        <v>10.55608945736827</v>
+        <v>15.75736931856617</v>
       </c>
       <c r="I7">
-        <v>16.18795139506179</v>
+        <v>23.00078550343651</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.10250334851321</v>
+        <v>8.38752510893303</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.87872348392769</v>
+        <v>13.48754946741245</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.86342038345786</v>
+        <v>8.370448629750166</v>
       </c>
       <c r="C8">
-        <v>7.189195161607759</v>
+        <v>4.379091243107006</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.08751211710326</v>
+        <v>12.40980369576312</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>29.01070063512434</v>
+        <v>34.38919150707174</v>
       </c>
       <c r="H8">
-        <v>10.46707119592913</v>
+        <v>15.68758916983225</v>
       </c>
       <c r="I8">
-        <v>15.99886929462987</v>
+        <v>22.88063615950065</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.94692898060749</v>
+        <v>8.603704421787633</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.11734055489162</v>
+        <v>13.68785490338737</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.63668615634945</v>
+        <v>9.013899790752559</v>
       </c>
       <c r="C9">
-        <v>8.272719191774209</v>
+        <v>4.932621898127261</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.23192710946599</v>
+        <v>12.96287081430115</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>30.23280852263106</v>
+        <v>34.35688033668593</v>
       </c>
       <c r="H9">
-        <v>10.36270290737342</v>
+        <v>15.57378574276794</v>
       </c>
       <c r="I9">
-        <v>15.75269977088488</v>
+        <v>22.68381628222929</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.44557022641747</v>
+        <v>9.025663861196781</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.31071293365078</v>
+        <v>14.09931582902228</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.81677380798095</v>
+        <v>9.465138240006826</v>
       </c>
       <c r="C10">
-        <v>9.000349484453809</v>
+        <v>5.298889426690892</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.84431141830854</v>
+        <v>13.37381896575403</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>31.33425925644575</v>
+        <v>34.39194445572837</v>
       </c>
       <c r="H10">
-        <v>10.33569767726317</v>
+        <v>15.50430309627489</v>
       </c>
       <c r="I10">
-        <v>15.66150357595663</v>
+        <v>22.56307501464825</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.45100807059971</v>
+        <v>9.331141294139536</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.78310462851207</v>
+        <v>14.41023900338817</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.32756877621284</v>
+        <v>9.664777901000724</v>
       </c>
       <c r="C11">
-        <v>9.317030143052364</v>
+        <v>5.456633362628354</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>18.54942751093646</v>
+        <v>13.56083677858474</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>31.88228068329302</v>
+        <v>34.42076149973965</v>
       </c>
       <c r="H11">
-        <v>10.33580091840284</v>
+        <v>15.4757797548635</v>
       </c>
       <c r="I11">
-        <v>15.6427012469967</v>
+        <v>22.51337375903658</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.88793391412025</v>
+        <v>9.468466036154984</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.42391504907559</v>
+        <v>14.55296557854448</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.51730612495294</v>
+        <v>9.739496603488753</v>
       </c>
       <c r="C12">
-        <v>9.434939555970354</v>
+        <v>5.515085284723461</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18.81250660541063</v>
+        <v>13.63159164105272</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>32.09675192947415</v>
+        <v>34.43352790375457</v>
       </c>
       <c r="H12">
-        <v>10.33776209536014</v>
+        <v>15.46542378277855</v>
       </c>
       <c r="I12">
-        <v>15.6391265676355</v>
+        <v>22.49530826560354</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.05048057243354</v>
+        <v>9.520180456517734</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.662514424754</v>
+        <v>14.60714795520214</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.47660596368688</v>
+        <v>9.723444800325543</v>
       </c>
       <c r="C13">
-        <v>9.409634237576817</v>
+        <v>5.50255372633324</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>18.7560202463032</v>
+        <v>13.61635736522162</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>32.05024974562576</v>
+        <v>34.43069593734599</v>
       </c>
       <c r="H13">
-        <v>10.33725192448988</v>
+        <v>15.46763430064972</v>
       </c>
       <c r="I13">
-        <v>15.63973410056451</v>
+        <v>22.49916533737574</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.01560193362569</v>
+        <v>9.509056410116491</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.61130660264362</v>
+        <v>14.59547359976387</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.34325219654293</v>
+        <v>9.670943078407067</v>
       </c>
       <c r="C14">
-        <v>9.326770617232867</v>
+        <v>5.461467965239588</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>18.5711491186768</v>
+        <v>13.56665954304012</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>31.89978505324962</v>
+        <v>34.42177462897016</v>
       </c>
       <c r="H14">
-        <v>10.33592291467702</v>
+        <v>15.47491883112537</v>
       </c>
       <c r="I14">
-        <v>15.64233442995125</v>
+        <v>22.51187233993712</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.90136477648391</v>
+        <v>9.472726660475637</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.44362551310944</v>
+        <v>14.55742077547963</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.26109037263215</v>
+        <v>9.638667620653917</v>
       </c>
       <c r="C15">
-        <v>9.275753959311789</v>
+        <v>5.43613460661339</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>18.45740261344412</v>
+        <v>13.53620757115731</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>31.80853140634167</v>
+        <v>34.41655158972982</v>
       </c>
       <c r="H15">
-        <v>10.33536345880912</v>
+        <v>15.47943884227365</v>
       </c>
       <c r="I15">
-        <v>15.64439756128536</v>
+        <v>22.51975422598922</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.83101369841173</v>
+        <v>9.45043471380966</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.34039041889704</v>
+        <v>14.53412841879645</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.78287276942496</v>
+        <v>9.451971782183417</v>
       </c>
       <c r="C16">
-        <v>8.979369497803717</v>
+        <v>5.288401349297818</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.79767174611778</v>
+        <v>13.36159190268347</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>31.29940668516397</v>
+        <v>34.39032048276083</v>
       </c>
       <c r="H16">
-        <v>10.33595208540934</v>
+        <v>15.5062293746147</v>
       </c>
       <c r="I16">
-        <v>15.66321272654658</v>
+        <v>22.56642858317032</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.42204502701869</v>
+        <v>9.322129326479418</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.74065172974947</v>
+        <v>14.40093307624133</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.48287045862892</v>
+        <v>9.335944875990327</v>
       </c>
       <c r="C17">
-        <v>8.793911845244564</v>
+        <v>5.195493970313222</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17.38578197147815</v>
+        <v>13.25443548107108</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>30.99924629225027</v>
+        <v>34.37752743485582</v>
       </c>
       <c r="H17">
-        <v>10.33958407953299</v>
+        <v>15.52345571915605</v>
       </c>
       <c r="I17">
-        <v>15.68076239521121</v>
+        <v>22.59640278240834</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.1659384408473</v>
+        <v>9.242960620698128</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.36537952053373</v>
+        <v>14.31951568042829</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.307863111431</v>
+        <v>9.26868297862975</v>
       </c>
       <c r="C18">
-        <v>8.685890162262721</v>
+        <v>5.14122116203298</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.14619429077545</v>
+        <v>13.1928133921654</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>30.83101212534769</v>
+        <v>34.37138016507168</v>
       </c>
       <c r="H18">
-        <v>10.34283030458955</v>
+        <v>15.53365410380771</v>
       </c>
       <c r="I18">
-        <v>15.69297374127631</v>
+        <v>22.61413467003848</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.01670500189953</v>
+        <v>9.197273570336021</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.14679733971182</v>
+        <v>14.27281056442718</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.24818562368736</v>
+        <v>9.245821148891361</v>
       </c>
       <c r="C19">
-        <v>8.649082392526033</v>
+        <v>5.122702149161791</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>17.06460960938403</v>
+        <v>13.17195352869681</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>30.77480226181503</v>
+        <v>34.36950662887026</v>
       </c>
       <c r="H19">
-        <v>10.34412399167481</v>
+        <v>15.537156901914</v>
       </c>
       <c r="I19">
-        <v>15.69746351355282</v>
+        <v>22.62022267925567</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.96584516740998</v>
+        <v>9.181780362938568</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.07231626219434</v>
+        <v>14.25701984782382</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.51505982126812</v>
+        <v>9.348351144410467</v>
       </c>
       <c r="C20">
-        <v>8.813793653738816</v>
+        <v>5.205470585512425</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.42990466029861</v>
+        <v>13.26584183682083</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>31.0307410030905</v>
+        <v>34.37876391151894</v>
       </c>
       <c r="H20">
-        <v>10.33907668388172</v>
+        <v>15.52159189402188</v>
       </c>
       <c r="I20">
-        <v>15.67867306577134</v>
+        <v>22.59316107799005</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.19340072049879</v>
+        <v>9.251404309330589</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.40561026596547</v>
+        <v>14.32817023012659</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.38252110504697</v>
+        <v>9.686388529495369</v>
       </c>
       <c r="C21">
-        <v>9.351163821279439</v>
+        <v>5.473570690234318</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>18.62555575090773</v>
+        <v>13.58125934205389</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>31.94379013851952</v>
+        <v>34.4243446975922</v>
       </c>
       <c r="H21">
-        <v>10.33625995805797</v>
+        <v>15.47276709252462</v>
       </c>
       <c r="I21">
-        <v>15.64147210401688</v>
+        <v>22.50811945498065</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.93499760149736</v>
+        <v>9.483405789030783</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.49298683885637</v>
+        <v>14.56859454610453</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.92798076829173</v>
+        <v>9.902155728651001</v>
       </c>
       <c r="C22">
-        <v>9.690673538020436</v>
+        <v>5.64131394129716</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.38413721231045</v>
+        <v>13.78699280314764</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>32.58109960828575</v>
+        <v>34.46494102078002</v>
       </c>
       <c r="H22">
-        <v>10.34569246110992</v>
+        <v>15.44345295830153</v>
       </c>
       <c r="I22">
-        <v>15.63796516401399</v>
+        <v>22.45694410877494</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.40274765169551</v>
+        <v>9.633334620589808</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.18003364619312</v>
+        <v>14.72648946742518</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.63880433382594</v>
+        <v>9.787490256942824</v>
       </c>
       <c r="C23">
-        <v>9.510522981814676</v>
+        <v>5.552471807959152</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>18.98130599436321</v>
+        <v>13.67725067914977</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>32.23718090174053</v>
+        <v>34.44228455815569</v>
       </c>
       <c r="H23">
-        <v>10.33957842378998</v>
+        <v>15.45886042496282</v>
       </c>
       <c r="I23">
-        <v>15.637835990691</v>
+        <v>22.48385304494498</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.15463606620157</v>
+        <v>9.553486454958614</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.81546655495644</v>
+        <v>14.64216443872894</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.50051490110398</v>
+        <v>9.34274399831728</v>
       </c>
       <c r="C24">
-        <v>8.804809451203367</v>
+        <v>5.200962833305675</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.4099654836623</v>
+        <v>13.26068506881906</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>31.01648876571363</v>
+        <v>34.37820113896397</v>
       </c>
       <c r="H24">
-        <v>10.33930248067077</v>
+        <v>15.5224336113713</v>
       </c>
       <c r="I24">
-        <v>15.67961106396429</v>
+        <v>22.59462509743197</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.18099123824958</v>
+        <v>9.247587449158772</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.38743077864862</v>
+        <v>14.32425718408171</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.17870143936177</v>
+        <v>8.843248616737316</v>
       </c>
       <c r="C25">
-        <v>7.991771906736934</v>
+        <v>4.789928140207731</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.61211500432926</v>
+        <v>12.8121181103608</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>29.86744738521326</v>
+        <v>34.35533492712249</v>
       </c>
       <c r="H25">
-        <v>10.38273446488106</v>
+        <v>15.60209758573595</v>
       </c>
       <c r="I25">
-        <v>15.80459039312111</v>
+        <v>22.73288619305207</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.05700210113928</v>
+        <v>8.912076435268016</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.74213632145961</v>
+        <v>13.98628914017295</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_58/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.461437329925868</v>
+        <v>12.12280379977637</v>
       </c>
       <c r="C2">
-        <v>4.460189247900223</v>
+        <v>7.346977756126881</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.485333666567</v>
+        <v>14.3826229614016</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>34.37797511545209</v>
+        <v>29.15715620988264</v>
       </c>
       <c r="H2">
-        <v>15.67023792101732</v>
+        <v>10.44745998707497</v>
       </c>
       <c r="I2">
-        <v>22.8506990301772</v>
+        <v>15.95559247541636</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.66227387128604</v>
+        <v>11.16510022947114</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.74349141120732</v>
+        <v>14.43685800416926</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.195696921778865</v>
+        <v>11.35495061508537</v>
       </c>
       <c r="C3">
-        <v>4.220086105404775</v>
+        <v>6.880581198014728</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.2675410576749</v>
+        <v>13.51722412896325</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>34.4177185865039</v>
+        <v>28.75538197788777</v>
       </c>
       <c r="H3">
-        <v>15.72230577637472</v>
+        <v>10.50948236568285</v>
       </c>
       <c r="I3">
-        <v>22.94046083773067</v>
+        <v>16.09020233209143</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.492351832921162</v>
+        <v>10.52042356620961</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.58362259603142</v>
+        <v>13.49220028657601</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.029764301248322</v>
+        <v>10.85755004559445</v>
       </c>
       <c r="C4">
-        <v>4.064587014020219</v>
+        <v>6.57955886847042</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.13613561859007</v>
+        <v>12.97052983598706</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>34.45406274580446</v>
+        <v>28.54597487044329</v>
       </c>
       <c r="H4">
-        <v>15.75717084808058</v>
+        <v>10.55581604697773</v>
       </c>
       <c r="I4">
-        <v>23.00044431928093</v>
+        <v>16.18738440823216</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.388097393767175</v>
+        <v>10.10483399617659</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.48806807113769</v>
+        <v>12.88214786061105</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.961561047474669</v>
+        <v>10.64832108357701</v>
       </c>
       <c r="C5">
-        <v>3.99921506351468</v>
+        <v>6.453192022878744</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.08324729590299</v>
+        <v>12.74407737056264</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>34.47186061370317</v>
+        <v>28.46969028976852</v>
       </c>
       <c r="H5">
-        <v>15.77210524844285</v>
+        <v>10.57667271214018</v>
       </c>
       <c r="I5">
-        <v>23.02610900911351</v>
+        <v>16.23044595392437</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.345693092563481</v>
+        <v>9.93053998468641</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.44982839242391</v>
+        <v>12.62594840125023</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.95020406829768</v>
+        <v>10.61318395764863</v>
       </c>
       <c r="C6">
-        <v>3.988239882841035</v>
+        <v>6.431985329895862</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.07450735325043</v>
+        <v>12.70625992880662</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>34.47499587260494</v>
+        <v>28.45755981824898</v>
       </c>
       <c r="H6">
-        <v>15.77462893737493</v>
+        <v>10.58025242974417</v>
       </c>
       <c r="I6">
-        <v>23.03044425000672</v>
+        <v>16.23779972459065</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.338658525939424</v>
+        <v>9.901301547974239</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.44352224282314</v>
+        <v>12.58294661252008</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.028846701255398</v>
+        <v>10.8547547767053</v>
       </c>
       <c r="C7">
-        <v>4.063713464184683</v>
+        <v>6.577869625259929</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.13541957287557</v>
+        <v>12.96749039408161</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>34.45429070049706</v>
+        <v>28.54490987682507</v>
       </c>
       <c r="H7">
-        <v>15.75736931856617</v>
+        <v>10.55608945736833</v>
       </c>
       <c r="I7">
-        <v>23.00078550343651</v>
+        <v>16.18795139506189</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.38752510893303</v>
+        <v>10.10250334851324</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.48754946741245</v>
+        <v>12.87872348392769</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.370448629750166</v>
+        <v>11.86342038345787</v>
       </c>
       <c r="C8">
-        <v>4.379091243107006</v>
+        <v>7.189195161607877</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.40980369576312</v>
+        <v>14.08751211710327</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>34.38919150707174</v>
+        <v>29.01070063512433</v>
       </c>
       <c r="H8">
-        <v>15.68758916983225</v>
+        <v>10.46707119592914</v>
       </c>
       <c r="I8">
-        <v>22.88063615950065</v>
+        <v>15.9988692946299</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.603704421787633</v>
+        <v>10.94692898060751</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.68785490338737</v>
+        <v>14.11734055489164</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.013899790752559</v>
+        <v>13.63668615634948</v>
       </c>
       <c r="C9">
-        <v>4.932621898127261</v>
+        <v>8.272719191774099</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.96287081430115</v>
+        <v>16.23192710946601</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>34.35688033668593</v>
+        <v>30.2328085226311</v>
       </c>
       <c r="H9">
-        <v>15.57378574276794</v>
+        <v>10.36270290737335</v>
       </c>
       <c r="I9">
-        <v>22.68381628222929</v>
+        <v>15.75269977088487</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.025663861196781</v>
+        <v>12.44557022641744</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.09931582902228</v>
+        <v>16.31071293365078</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.465138240006826</v>
+        <v>14.81677380798101</v>
       </c>
       <c r="C10">
-        <v>5.298889426690892</v>
+        <v>9.000349484453803</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.37381896575403</v>
+        <v>17.84431141830854</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>34.39194445572837</v>
+        <v>31.33425925644561</v>
       </c>
       <c r="H10">
-        <v>15.50430309627489</v>
+        <v>10.33569767726317</v>
       </c>
       <c r="I10">
-        <v>22.56307501464825</v>
+        <v>15.66150357595656</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.331141294139536</v>
+        <v>13.45100807059977</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.41023900338817</v>
+        <v>17.7831046285121</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.664777901000724</v>
+        <v>15.32756877621295</v>
       </c>
       <c r="C11">
-        <v>5.456633362628354</v>
+        <v>9.3170301430522</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.56083677858474</v>
+        <v>18.54942751093649</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>34.42076149973965</v>
+        <v>31.88228068329287</v>
       </c>
       <c r="H11">
-        <v>15.4757797548635</v>
+        <v>10.33580091840272</v>
       </c>
       <c r="I11">
-        <v>22.51337375903658</v>
+        <v>15.64270124699647</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.468466036154984</v>
+        <v>13.88793391412027</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.55296557854448</v>
+        <v>18.42391504907562</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.739496603488753</v>
+        <v>15.51730612495287</v>
       </c>
       <c r="C12">
-        <v>5.515085284723461</v>
+        <v>9.434939555970509</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.63159164105272</v>
+        <v>18.81250660541063</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>34.43352790375457</v>
+        <v>32.09675192947426</v>
       </c>
       <c r="H12">
-        <v>15.46542378277855</v>
+        <v>10.33776209536028</v>
       </c>
       <c r="I12">
-        <v>22.49530826560354</v>
+        <v>15.63912656763563</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.520180456517734</v>
+        <v>14.05048057243354</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.60714795520214</v>
+        <v>18.66251442475399</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.723444800325543</v>
+        <v>15.47660596368691</v>
       </c>
       <c r="C13">
-        <v>5.50255372633324</v>
+        <v>9.409634237576853</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.61635736522162</v>
+        <v>18.75602024630314</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>34.43069593734599</v>
+        <v>32.05024974562586</v>
       </c>
       <c r="H13">
-        <v>15.46763430064972</v>
+        <v>10.3372519244899</v>
       </c>
       <c r="I13">
-        <v>22.49916533737574</v>
+        <v>15.63973410056452</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.509056410116491</v>
+        <v>14.01560193362571</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.59547359976387</v>
+        <v>18.61130660264359</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.670943078407067</v>
+        <v>15.34325219654286</v>
       </c>
       <c r="C14">
-        <v>5.461467965239588</v>
+        <v>9.326770617232853</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.56665954304012</v>
+        <v>18.57114911867671</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>34.42177462897016</v>
+        <v>31.89978505324976</v>
       </c>
       <c r="H14">
-        <v>15.47491883112537</v>
+        <v>10.33592291467715</v>
       </c>
       <c r="I14">
-        <v>22.51187233993712</v>
+        <v>15.64233442995143</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.472726660475637</v>
+        <v>13.90136477648385</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.55742077547963</v>
+        <v>18.44362551310935</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.638667620653917</v>
+        <v>15.26109037263222</v>
       </c>
       <c r="C15">
-        <v>5.43613460661339</v>
+        <v>9.275753959311789</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.53620757115731</v>
+        <v>18.45740261344413</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>34.41655158972982</v>
+        <v>31.80853140634167</v>
       </c>
       <c r="H15">
-        <v>15.47943884227365</v>
+        <v>10.33536345880904</v>
       </c>
       <c r="I15">
-        <v>22.51975422598922</v>
+        <v>15.64439756128526</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.45043471380966</v>
+        <v>13.83101369841179</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.53412841879645</v>
+        <v>18.34039041889708</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.451971782183417</v>
+        <v>14.78287276942498</v>
       </c>
       <c r="C16">
-        <v>5.288401349297818</v>
+        <v>8.979369497803763</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.36159190268347</v>
+        <v>17.79767174611773</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>34.39032048276083</v>
+        <v>31.29940668516396</v>
       </c>
       <c r="H16">
-        <v>15.5062293746147</v>
+        <v>10.33595208540928</v>
       </c>
       <c r="I16">
-        <v>22.56642858317032</v>
+        <v>15.66321272654658</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.322129326479418</v>
+        <v>13.42204502701873</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.40093307624133</v>
+        <v>17.74065172974944</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.335944875990327</v>
+        <v>14.48287045862895</v>
       </c>
       <c r="C17">
-        <v>5.195493970313222</v>
+        <v>8.793911845244493</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.25443548107108</v>
+        <v>17.38578197147819</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>34.37752743485582</v>
+        <v>30.99924629225056</v>
       </c>
       <c r="H17">
-        <v>15.52345571915605</v>
+        <v>10.33958407953303</v>
       </c>
       <c r="I17">
-        <v>22.59640278240834</v>
+        <v>15.68076239521129</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.242960620698128</v>
+        <v>13.16593844084729</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.31951568042829</v>
+        <v>17.36537952053375</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.26868297862975</v>
+        <v>14.30786311143107</v>
       </c>
       <c r="C18">
-        <v>5.14122116203298</v>
+        <v>8.685890162262803</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.1928133921654</v>
+        <v>17.14619429077538</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>34.37138016507168</v>
+        <v>30.83101212534757</v>
       </c>
       <c r="H18">
-        <v>15.53365410380771</v>
+        <v>10.34283030458946</v>
       </c>
       <c r="I18">
-        <v>22.61413467003848</v>
+        <v>15.69297374127621</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.197273570336021</v>
+        <v>13.01670500189965</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.27281056442718</v>
+        <v>17.14679733971182</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.245821148891361</v>
+        <v>14.24818562368736</v>
       </c>
       <c r="C19">
-        <v>5.122702149161791</v>
+        <v>8.64908239252601</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.17195352869681</v>
+        <v>17.06460960938404</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>34.36950662887026</v>
+        <v>30.77480226181508</v>
       </c>
       <c r="H19">
-        <v>15.537156901914</v>
+        <v>10.34412399167478</v>
       </c>
       <c r="I19">
-        <v>22.62022267925567</v>
+        <v>15.69746351355278</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.181780362938568</v>
+        <v>12.96584516740996</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.25701984782382</v>
+        <v>17.07231626219434</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.348351144410467</v>
+        <v>14.51505982126815</v>
       </c>
       <c r="C20">
-        <v>5.205470585512425</v>
+        <v>8.813793653738786</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.26584183682083</v>
+        <v>17.42990466029857</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>34.37876391151894</v>
+        <v>31.03074100309073</v>
       </c>
       <c r="H20">
-        <v>15.52159189402188</v>
+        <v>10.33907668388173</v>
       </c>
       <c r="I20">
-        <v>22.59316107799005</v>
+        <v>15.67867306577142</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.251404309330589</v>
+        <v>13.19340072049877</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.32817023012659</v>
+        <v>17.40561026596544</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.686388529495369</v>
+        <v>15.38252110504703</v>
       </c>
       <c r="C21">
-        <v>5.473570690234318</v>
+        <v>9.351163821279268</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.58125934205389</v>
+        <v>18.6255557509077</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>34.4243446975922</v>
+        <v>31.94379013851965</v>
       </c>
       <c r="H21">
-        <v>15.47276709252462</v>
+        <v>10.33625995805795</v>
       </c>
       <c r="I21">
-        <v>22.50811945498065</v>
+        <v>15.64147210401693</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.483405789030783</v>
+        <v>13.9349976014974</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.56859454610453</v>
+        <v>18.49298683885636</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.902155728651001</v>
+        <v>15.9279807682918</v>
       </c>
       <c r="C22">
-        <v>5.64131394129716</v>
+        <v>9.690673538020228</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>13.78699280314764</v>
+        <v>19.3841372123105</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>34.46494102078002</v>
+        <v>32.58109960828572</v>
       </c>
       <c r="H22">
-        <v>15.44345295830153</v>
+        <v>10.34569246110988</v>
       </c>
       <c r="I22">
-        <v>22.45694410877494</v>
+        <v>15.63796516401388</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.633334620589808</v>
+        <v>14.40274765169547</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.72648946742518</v>
+        <v>19.18003364619315</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.787490256942824</v>
+        <v>15.63880433382597</v>
       </c>
       <c r="C23">
-        <v>5.552471807959152</v>
+        <v>9.510522981814514</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.67725067914977</v>
+        <v>18.98130599436323</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>34.44228455815569</v>
+        <v>32.23718090174073</v>
       </c>
       <c r="H23">
-        <v>15.45886042496282</v>
+        <v>10.33957842379001</v>
       </c>
       <c r="I23">
-        <v>22.48385304494498</v>
+        <v>15.63783599069108</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.553486454958614</v>
+        <v>14.15463606620159</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.64216443872894</v>
+        <v>18.81546655495644</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.34274399831728</v>
+        <v>14.50051490110399</v>
       </c>
       <c r="C24">
-        <v>5.200962833305675</v>
+        <v>8.804809451203237</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.26068506881906</v>
+        <v>17.40996548366229</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>34.37820113896397</v>
+        <v>31.01648876571389</v>
       </c>
       <c r="H24">
-        <v>15.5224336113713</v>
+        <v>10.3393024806708</v>
       </c>
       <c r="I24">
-        <v>22.59462509743197</v>
+        <v>15.67961106396439</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.247587449158772</v>
+        <v>13.18099123824959</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.32425718408171</v>
+        <v>17.38743077864861</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.843248616737316</v>
+        <v>13.17870143936174</v>
       </c>
       <c r="C25">
-        <v>4.789928140207731</v>
+        <v>7.991771906736787</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.8121181103608</v>
+        <v>15.61211500432925</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>34.35533492712249</v>
+        <v>29.86744738521327</v>
       </c>
       <c r="H25">
-        <v>15.60209758573595</v>
+        <v>10.38273446488103</v>
       </c>
       <c r="I25">
-        <v>22.73288619305207</v>
+        <v>15.80459039312102</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.912076435268016</v>
+        <v>12.05700210113923</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.98628914017295</v>
+        <v>15.74213632145957</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_58/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,52 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.12280379977637</v>
+        <v>22.12506366733039</v>
       </c>
       <c r="C2">
-        <v>7.346977756126881</v>
+        <v>18.69672345080372</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.3826229614016</v>
+        <v>29.44581070425249</v>
       </c>
       <c r="F2">
-        <v>30.27884324296195</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>29.15715620988264</v>
+        <v>33.84010240817084</v>
       </c>
       <c r="H2">
-        <v>10.44745998707497</v>
+        <v>3.303049509471714</v>
       </c>
       <c r="I2">
-        <v>15.95559247541636</v>
+        <v>3.517694799188398</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.52372012319582</v>
       </c>
       <c r="K2">
-        <v>11.16510022947114</v>
+        <v>14.4821010590858</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.43685800416926</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +468,52 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>11.55671016675141</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.35495061508537</v>
+        <v>20.64459450291443</v>
       </c>
       <c r="C3">
-        <v>6.880581198014728</v>
+        <v>17.48061586173667</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.51722412896325</v>
+        <v>27.52999457170632</v>
       </c>
       <c r="F3">
-        <v>28.1630198432675</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>28.75538197788777</v>
+        <v>32.08572390794634</v>
       </c>
       <c r="H3">
-        <v>10.50948236568285</v>
+        <v>3.028745200330959</v>
       </c>
       <c r="I3">
-        <v>16.09020233209143</v>
+        <v>3.319267021609854</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.28610723349337</v>
       </c>
       <c r="K3">
-        <v>10.52042356620961</v>
+        <v>14.32051085338343</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.49220028657601</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +521,52 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>11.6835470566091</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.85755004559445</v>
+        <v>19.67818456860346</v>
       </c>
       <c r="C4">
-        <v>6.57955886847042</v>
+        <v>16.69527109267847</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.97052983598706</v>
+        <v>26.28905733043781</v>
       </c>
       <c r="F4">
-        <v>26.79314218379246</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>28.54597487044329</v>
+        <v>30.97272542010509</v>
       </c>
       <c r="H4">
-        <v>10.55581604697773</v>
+        <v>2.854911860739114</v>
       </c>
       <c r="I4">
-        <v>16.18738440823216</v>
+        <v>3.194442710692228</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.14100960622771</v>
       </c>
       <c r="K4">
-        <v>10.10483399617659</v>
+        <v>14.22504803334732</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.88214786061105</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +574,52 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>11.76332079151416</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.64832108357701</v>
+        <v>19.26205092698227</v>
       </c>
       <c r="C5">
-        <v>6.453192022878744</v>
+        <v>16.3716431485806</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.74407737056264</v>
+        <v>25.76666170036945</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>28.46969028976852</v>
+        <v>30.48436702683314</v>
       </c>
       <c r="H5">
-        <v>10.57667271214018</v>
+        <v>2.7824392931649</v>
       </c>
       <c r="I5">
-        <v>16.23044595392437</v>
+        <v>3.142929532361109</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.0770850532557</v>
       </c>
       <c r="K5">
-        <v>9.93053998468641</v>
+        <v>14.17732450046507</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.62594840125023</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +627,52 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>11.79698909369621</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.61318395764863</v>
+        <v>19.18253905311886</v>
       </c>
       <c r="C6">
-        <v>6.431985329895862</v>
+        <v>16.32483478613956</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.70625992880662</v>
+        <v>25.67843952117914</v>
       </c>
       <c r="F6">
-        <v>26.12018204701072</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>28.45755981824898</v>
+        <v>30.37069186514385</v>
       </c>
       <c r="H6">
-        <v>10.58025242974417</v>
+        <v>2.770025722643018</v>
       </c>
       <c r="I6">
-        <v>16.23779972459065</v>
+        <v>3.134661096282114</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.06033800684971</v>
       </c>
       <c r="K6">
-        <v>9.901301547974239</v>
+        <v>14.15757402382087</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.58294661252008</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +680,52 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>11.80345506647649</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.8547547767053</v>
+        <v>19.64721504806968</v>
       </c>
       <c r="C7">
-        <v>6.577869625259929</v>
+        <v>16.7109912510971</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.96749039408161</v>
+        <v>26.28075433984482</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>28.54490987682507</v>
+        <v>30.88012455060749</v>
       </c>
       <c r="H7">
-        <v>10.55608945736833</v>
+        <v>2.853145986003418</v>
       </c>
       <c r="I7">
-        <v>16.18795139506189</v>
+        <v>3.194349605653692</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.12347751633177</v>
       </c>
       <c r="K7">
-        <v>10.10250334851324</v>
+        <v>14.19205377387544</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.87872348392769</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +733,52 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>11.76618372255215</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.86342038345787</v>
+        <v>21.59541166737446</v>
       </c>
       <c r="C8">
-        <v>7.189195161607877</v>
+        <v>18.30988940017983</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.08751211710327</v>
+        <v>28.79695402989873</v>
       </c>
       <c r="F8">
-        <v>29.56389055882491</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>29.01070063512433</v>
+        <v>33.13594524839139</v>
       </c>
       <c r="H8">
-        <v>10.46707119592914</v>
+        <v>3.208564900416423</v>
       </c>
       <c r="I8">
-        <v>15.9988692946299</v>
+        <v>3.450231466154595</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.42017463198367</v>
       </c>
       <c r="K8">
-        <v>10.94692898060751</v>
+        <v>14.3833271355649</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.11734055489164</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +786,52 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>11.60369846139103</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.63668615634948</v>
+        <v>25.00469624894318</v>
       </c>
       <c r="C9">
-        <v>8.272719191774099</v>
+        <v>21.10850080809992</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.23192710946601</v>
+        <v>33.22390053702562</v>
       </c>
       <c r="F9">
-        <v>34.45877994146107</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>30.2328085226311</v>
+        <v>37.40209615309777</v>
       </c>
       <c r="H9">
-        <v>10.36270290737335</v>
+        <v>3.865506872025634</v>
       </c>
       <c r="I9">
-        <v>15.75269977088487</v>
+        <v>3.929416599906647</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.03594102630879</v>
       </c>
       <c r="K9">
-        <v>12.44557022641744</v>
+        <v>14.84734520448185</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.31071293365078</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +839,52 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>11.29495949297365</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.81677380798101</v>
+        <v>27.14215623395645</v>
       </c>
       <c r="C10">
-        <v>9.000349484453803</v>
+        <v>22.86502638830579</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.84431141830854</v>
+        <v>35.28802347687535</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>31.33425925644561</v>
+        <v>39.89086306416311</v>
       </c>
       <c r="H10">
-        <v>10.33569767726317</v>
+        <v>4.283835284745682</v>
       </c>
       <c r="I10">
-        <v>15.66150357595656</v>
+        <v>4.257115871014303</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.39582028528453</v>
       </c>
       <c r="K10">
-        <v>13.45100807059977</v>
+        <v>15.07190384839227</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.7831046285121</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +892,52 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>11.09974452785339</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.32756877621295</v>
+        <v>27.28553185602734</v>
       </c>
       <c r="C11">
-        <v>9.3170301430522</v>
+        <v>22.59301782036111</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>18.54942751093649</v>
+        <v>28.67684012655726</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>31.88228068329287</v>
+        <v>37.31962725578305</v>
       </c>
       <c r="H11">
-        <v>10.33580091840272</v>
+        <v>4.61488316793092</v>
       </c>
       <c r="I11">
-        <v>15.64270124699647</v>
+        <v>4.302926202607375</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.78795734343932</v>
       </c>
       <c r="K11">
-        <v>13.88793391412027</v>
+        <v>14.07091234441942</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.42391504907562</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +945,52 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>11.22985642645326</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.51730612495287</v>
+        <v>27.00476127648361</v>
       </c>
       <c r="C12">
-        <v>9.434939555970509</v>
+        <v>21.99091775718637</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18.81250660541063</v>
+        <v>22.72058397775288</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>32.09675192947426</v>
+        <v>34.71220694568568</v>
       </c>
       <c r="H12">
-        <v>10.33776209536028</v>
+        <v>5.389237384125631</v>
       </c>
       <c r="I12">
-        <v>15.63912656763563</v>
+        <v>4.282082294545074</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.21643266244033</v>
       </c>
       <c r="K12">
-        <v>14.05048057243354</v>
+        <v>13.22890334844537</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.66251442475399</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +998,52 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>11.40628997605392</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.47660596368691</v>
+        <v>26.34414911159852</v>
       </c>
       <c r="C13">
-        <v>9.409634237576853</v>
+        <v>21.10578622739577</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>18.75602024630314</v>
+        <v>16.80139518183742</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>32.05024974562586</v>
+        <v>31.73424927951619</v>
       </c>
       <c r="H13">
-        <v>10.3372519244899</v>
+        <v>6.382533790015373</v>
       </c>
       <c r="I13">
-        <v>15.63973410056452</v>
+        <v>4.210004973270525</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.608083480491631</v>
       </c>
       <c r="K13">
-        <v>14.01560193362571</v>
+        <v>12.40987615304572</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.61130660264359</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1051,52 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>11.62387395936096</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.34325219654286</v>
+        <v>25.6961712764227</v>
       </c>
       <c r="C14">
-        <v>9.326770617232853</v>
+        <v>20.35413693884263</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>18.57114911867671</v>
+        <v>12.74521298233325</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>31.89978505324976</v>
+        <v>29.42451701257764</v>
       </c>
       <c r="H14">
-        <v>10.33592291467715</v>
+        <v>7.166902475235033</v>
       </c>
       <c r="I14">
-        <v>15.64233442995143</v>
+        <v>4.138178542667896</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.160726258344432</v>
       </c>
       <c r="K14">
-        <v>13.90136477648385</v>
+        <v>11.84620790480833</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.44362551310935</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1104,52 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>11.79587259377718</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.26109037263222</v>
+        <v>25.4460194415982</v>
       </c>
       <c r="C15">
-        <v>9.275753959311789</v>
+        <v>20.11173910922957</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>18.45740261344413</v>
+        <v>11.77117352111812</v>
       </c>
       <c r="F15">
-        <v>38.96319309123407</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>31.80853140634167</v>
+        <v>28.74985042842336</v>
       </c>
       <c r="H15">
-        <v>10.33536345880904</v>
+        <v>7.347210888000635</v>
       </c>
       <c r="I15">
-        <v>15.64439756128526</v>
+        <v>4.109105806326985</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.039423336364667</v>
       </c>
       <c r="K15">
-        <v>13.83101369841179</v>
+        <v>11.7049809749328</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.34039041889708</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1157,52 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>11.84436264754708</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.78287276942498</v>
+        <v>24.64414405124478</v>
       </c>
       <c r="C16">
-        <v>8.979369497803763</v>
+        <v>19.51399099148957</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.79767174611773</v>
+        <v>11.61797597995949</v>
       </c>
       <c r="F16">
-        <v>37.63463543028808</v>
+        <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>31.29940668516396</v>
+        <v>28.05010956410873</v>
       </c>
       <c r="H16">
-        <v>10.33595208540928</v>
+        <v>7.063004551734033</v>
       </c>
       <c r="I16">
-        <v>15.66321272654658</v>
+        <v>3.986887486783182</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.985354362133933</v>
       </c>
       <c r="K16">
-        <v>13.42204502701873</v>
+        <v>11.75541374961104</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.74065172974944</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1210,52 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>11.86370766946863</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.48287045862895</v>
+        <v>24.37639394971641</v>
       </c>
       <c r="C17">
-        <v>8.793911845244493</v>
+        <v>19.46553809086767</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17.38578197147819</v>
+        <v>13.69222803271598</v>
       </c>
       <c r="F17">
         <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>30.99924629225056</v>
+        <v>28.79558131506402</v>
       </c>
       <c r="H17">
-        <v>10.33958407953303</v>
+        <v>6.375579545653999</v>
       </c>
       <c r="I17">
-        <v>15.68076239521129</v>
+        <v>3.930190979342157</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.184556271919947</v>
       </c>
       <c r="K17">
-        <v>13.16593844084729</v>
+        <v>12.08909289138625</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.36537952053375</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1263,52 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>11.78968976125886</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.30786311143107</v>
+        <v>24.57197649695126</v>
       </c>
       <c r="C18">
-        <v>8.685890162262803</v>
+        <v>19.88967420660761</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.14619429077538</v>
+        <v>18.23732491578039</v>
       </c>
       <c r="F18">
-        <v>36.31710943239619</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>30.83101212534757</v>
+        <v>30.93050811056726</v>
       </c>
       <c r="H18">
-        <v>10.34283030458946</v>
+        <v>5.354545987219797</v>
       </c>
       <c r="I18">
-        <v>15.69297374127621</v>
+        <v>3.926836126821552</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.636311384084975</v>
       </c>
       <c r="K18">
-        <v>13.01670500189965</v>
+        <v>12.73639861074308</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.14679733971182</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1316,52 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>11.6332710147475</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.24818562368736</v>
+        <v>25.09093172229744</v>
       </c>
       <c r="C19">
-        <v>8.64908239252601</v>
+        <v>20.69931343673033</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>17.06460960938404</v>
+        <v>24.5196108620749</v>
       </c>
       <c r="F19">
-        <v>36.15172494150059</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>30.77480226181508</v>
+        <v>33.86111175547325</v>
       </c>
       <c r="H19">
-        <v>10.34412399167478</v>
+        <v>4.405774557744634</v>
       </c>
       <c r="I19">
-        <v>15.69746351355278</v>
+        <v>3.978129458396654</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.23277811408898</v>
       </c>
       <c r="K19">
-        <v>12.96584516740996</v>
+        <v>13.55623684210108</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.07231626219434</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1369,52 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>11.45016597290333</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.51505982126815</v>
+        <v>26.53287828783864</v>
       </c>
       <c r="C20">
-        <v>8.813793653738786</v>
+        <v>22.45732243893725</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.42990466029857</v>
+        <v>34.71445183648991</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>31.03074100309073</v>
+        <v>39.01360414948979</v>
       </c>
       <c r="H20">
-        <v>10.33907668388173</v>
+        <v>4.170573803091729</v>
       </c>
       <c r="I20">
-        <v>15.67867306577142</v>
+        <v>4.174043184062073</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.25047702676106</v>
       </c>
       <c r="K20">
-        <v>13.19340072049877</v>
+        <v>14.91080716470902</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.40561026596544</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1422,52 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>11.16237025863571</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.38252110504703</v>
+        <v>28.24210199197016</v>
       </c>
       <c r="C21">
-        <v>9.351163821279268</v>
+        <v>23.92997000023848</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>18.6255557509077</v>
+        <v>37.58120681260196</v>
       </c>
       <c r="F21">
-        <v>39.30090300329761</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>31.94379013851965</v>
+        <v>41.56412260661076</v>
       </c>
       <c r="H21">
-        <v>10.33625995805795</v>
+        <v>4.549983776740572</v>
       </c>
       <c r="I21">
-        <v>15.64147210401693</v>
+        <v>4.441137463453891</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.67303452294847</v>
       </c>
       <c r="K21">
-        <v>13.9349976014974</v>
+        <v>15.30476377787414</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.49298683885636</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1475,52 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>10.98198805215194</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.9279807682918</v>
+        <v>29.28957637066697</v>
       </c>
       <c r="C22">
-        <v>9.690673538020228</v>
+        <v>24.77807478765482</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.3841372123105</v>
+        <v>38.94580729239102</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>32.58109960828572</v>
+        <v>43.06115501505952</v>
       </c>
       <c r="H22">
-        <v>10.34569246110988</v>
+        <v>4.773873655693606</v>
       </c>
       <c r="I22">
-        <v>15.63796516401388</v>
+        <v>4.606704152904517</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.92321243838852</v>
       </c>
       <c r="K22">
-        <v>14.40274765169547</v>
+        <v>15.54238525222804</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.18003364619315</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1528,52 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>10.87116380580513</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.63880433382597</v>
+        <v>28.75661516207009</v>
       </c>
       <c r="C23">
-        <v>9.510522981814514</v>
+        <v>24.3113156958605</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>18.98130599436323</v>
+        <v>38.22365196570481</v>
       </c>
       <c r="F23">
-        <v>40.01414225038427</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>32.23718090174073</v>
+        <v>42.34227364280222</v>
       </c>
       <c r="H23">
-        <v>10.33957842379001</v>
+        <v>4.655477977101227</v>
       </c>
       <c r="I23">
-        <v>15.63783599069108</v>
+        <v>4.517418456942075</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.80676913019866</v>
       </c>
       <c r="K23">
-        <v>14.15463606620159</v>
+        <v>15.45031350404135</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.81546655495644</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1581,52 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>10.92560839197774</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.50051490110399</v>
+        <v>26.60999490000232</v>
       </c>
       <c r="C24">
-        <v>8.804809451203237</v>
+        <v>22.50515642875767</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.40996548366229</v>
+        <v>35.37942653366166</v>
       </c>
       <c r="F24">
-        <v>36.8512191057544</v>
+        <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>31.01648876571389</v>
+        <v>39.42996223294799</v>
       </c>
       <c r="H24">
-        <v>10.3393024806708</v>
+        <v>4.199053837713701</v>
       </c>
       <c r="I24">
-        <v>15.67961106396439</v>
+        <v>4.177451796880616</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.33992479624594</v>
       </c>
       <c r="K24">
-        <v>13.18099123824959</v>
+        <v>15.05781226894038</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.38743077864861</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,51 +1634,63 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>11.1424746454691</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.17870143936174</v>
+        <v>24.0918750885848</v>
       </c>
       <c r="C25">
-        <v>7.991771906736787</v>
+        <v>20.41387511742689</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.61211500432925</v>
+        <v>32.07818174089427</v>
       </c>
       <c r="F25">
-        <v>33.19272459126714</v>
+        <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>29.86744738521327</v>
+        <v>36.14767028958551</v>
       </c>
       <c r="H25">
-        <v>10.38273446488103</v>
+        <v>3.690681662717911</v>
       </c>
       <c r="I25">
-        <v>15.80459039312102</v>
+        <v>3.803133518190454</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.84081544806377</v>
       </c>
       <c r="K25">
-        <v>12.05700210113923</v>
+        <v>14.66165387655773</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.74213632145957</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>11.38269536214866</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_58/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.12506366733039</v>
+        <v>21.49456009868771</v>
       </c>
       <c r="C2">
-        <v>18.69672345080372</v>
+        <v>19.07442949047301</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>29.44581070425249</v>
+        <v>29.36307421010377</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>30.27884324296192</v>
       </c>
       <c r="G2">
-        <v>33.84010240817084</v>
+        <v>31.30837520808892</v>
       </c>
       <c r="H2">
-        <v>3.303049509471714</v>
+        <v>3.252370423632816</v>
       </c>
       <c r="I2">
-        <v>3.517694799188398</v>
+        <v>3.450546064311643</v>
       </c>
       <c r="J2">
-        <v>10.52372012319582</v>
+        <v>10.71548303037161</v>
       </c>
       <c r="K2">
-        <v>14.4821010590858</v>
+        <v>13.69171742030493</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.43266372478354</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.037937767900463</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,51 +475,57 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>11.55671016675141</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>11.66574264442295</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.64459450291443</v>
+        <v>20.10649766266283</v>
       </c>
       <c r="C3">
-        <v>17.48061586173667</v>
+        <v>17.7972412843173</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.52999457170632</v>
+        <v>27.46988063838518</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>28.16301984326746</v>
       </c>
       <c r="G3">
-        <v>32.08572390794634</v>
+        <v>29.80196721002353</v>
       </c>
       <c r="H3">
-        <v>3.028745200330959</v>
+        <v>2.992257207733882</v>
       </c>
       <c r="I3">
-        <v>3.319267021609854</v>
+        <v>3.281081594617972</v>
       </c>
       <c r="J3">
-        <v>10.28610723349337</v>
+        <v>10.51127250069693</v>
       </c>
       <c r="K3">
-        <v>14.32051085338343</v>
+        <v>13.63211680992175</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.52880697193538</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.798361911572544</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -522,51 +534,57 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>11.6835470566091</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>11.75283448723201</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.67818456860346</v>
+        <v>19.19977372176627</v>
       </c>
       <c r="C4">
-        <v>16.69527109267847</v>
+        <v>16.97130518586352</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.28905733043781</v>
+        <v>26.24312556251816</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>30.97272542010509</v>
+        <v>28.84826677972344</v>
       </c>
       <c r="H4">
-        <v>2.854911860739114</v>
+        <v>2.827252402687241</v>
       </c>
       <c r="I4">
-        <v>3.194442710692228</v>
+        <v>3.174509278688711</v>
       </c>
       <c r="J4">
-        <v>10.14100960622771</v>
+        <v>10.38394394779153</v>
       </c>
       <c r="K4">
-        <v>14.22504803334732</v>
+        <v>13.5976620879771</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.58632827556349</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.673902838855419</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -575,51 +593,57 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>11.76332079151416</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>11.80906100805233</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.26205092698227</v>
+        <v>18.809100919464</v>
       </c>
       <c r="C5">
-        <v>16.3716431485806</v>
+        <v>16.63018896539147</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.76666170036945</v>
+        <v>25.72664923208762</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>30.48436702683314</v>
+        <v>28.42757426559518</v>
       </c>
       <c r="H5">
-        <v>2.7824392931649</v>
+        <v>2.758435859484583</v>
       </c>
       <c r="I5">
-        <v>3.142929532361109</v>
+        <v>3.130845829152725</v>
       </c>
       <c r="J5">
-        <v>10.0770850532557</v>
+        <v>10.32699028064948</v>
       </c>
       <c r="K5">
-        <v>14.17732450046507</v>
+        <v>13.57531860065763</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.60223280827943</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.622872690799014</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -628,51 +652,57 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>11.79698909369621</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>11.83358576913046</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.18253905311886</v>
+        <v>18.73432462866946</v>
       </c>
       <c r="C6">
-        <v>16.32483478613956</v>
+        <v>16.58022047637001</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.67843952117914</v>
+        <v>25.63947026798263</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>30.37069186514385</v>
+        <v>28.32657136872954</v>
       </c>
       <c r="H6">
-        <v>2.770025722643018</v>
+        <v>2.746661940248113</v>
       </c>
       <c r="I6">
-        <v>3.134661096282114</v>
+        <v>3.124278720364624</v>
       </c>
       <c r="J6">
-        <v>10.06033800684971</v>
+        <v>10.31187699345305</v>
       </c>
       <c r="K6">
-        <v>14.15757402382087</v>
+        <v>13.56090759150831</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.59612260986527</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.607089037567894</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -681,51 +711,57 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>11.80345506647649</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>11.83885146877122</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.64721504806968</v>
+        <v>19.15899487940242</v>
       </c>
       <c r="C7">
-        <v>16.7109912510971</v>
+        <v>16.96646170644113</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.28075433984482</v>
+        <v>26.23405064001715</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>30.88012455060749</v>
+        <v>28.83801624311609</v>
       </c>
       <c r="H7">
-        <v>2.853145986003418</v>
+        <v>2.825014681958185</v>
       </c>
       <c r="I7">
-        <v>3.194349605653692</v>
+        <v>3.174639762339389</v>
       </c>
       <c r="J7">
-        <v>10.12347751633177</v>
+        <v>10.30793164795704</v>
       </c>
       <c r="K7">
-        <v>14.19205377387544</v>
+        <v>13.55481141482656</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.55245321166404</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.641897493618258</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -734,51 +770,57 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>11.76618372255215</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>11.81430309684383</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.59541166737446</v>
+        <v>20.96280814188082</v>
       </c>
       <c r="C8">
-        <v>18.30988940017983</v>
+        <v>18.60584057036739</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>28.79695402989873</v>
+        <v>28.71910925770691</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>33.13594524839139</v>
+        <v>30.93660714678348</v>
       </c>
       <c r="H8">
-        <v>3.208564900416423</v>
+        <v>3.160986429694366</v>
       </c>
       <c r="I8">
-        <v>3.450231466154595</v>
+        <v>3.39144038231353</v>
       </c>
       <c r="J8">
-        <v>10.42017463198367</v>
+        <v>10.43211972519257</v>
       </c>
       <c r="K8">
-        <v>14.3833271355649</v>
+        <v>13.58905032504168</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.4043373026856</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.885888802422873</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -787,51 +829,57 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>11.60369846139103</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>11.70625105588433</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.00469624894318</v>
+        <v>24.15120596116818</v>
       </c>
       <c r="C9">
-        <v>21.10850080809992</v>
+        <v>21.53268315565564</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>33.22390053702562</v>
+        <v>33.08965429662685</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>37.40209615309777</v>
+        <v>34.65916811472223</v>
       </c>
       <c r="H9">
-        <v>3.865506872025634</v>
+        <v>3.782517314704924</v>
       </c>
       <c r="I9">
-        <v>3.929416599906647</v>
+        <v>3.799030452008535</v>
       </c>
       <c r="J9">
-        <v>11.03594102630879</v>
+        <v>10.90435502283836</v>
       </c>
       <c r="K9">
-        <v>14.84734520448185</v>
+        <v>13.77596703494734</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.17900640729308</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.609600012957623</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -840,51 +888,57 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>11.29495949297365</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>11.5039989904027</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.14215623395645</v>
+        <v>26.10125470591165</v>
       </c>
       <c r="C10">
-        <v>22.86502638830579</v>
+        <v>23.27237994562502</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>35.28802347687535</v>
+        <v>35.10871098926346</v>
       </c>
       <c r="F10">
         <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>39.89086306416311</v>
+        <v>37.1899028827767</v>
       </c>
       <c r="H10">
-        <v>4.283835284745682</v>
+        <v>4.173464865852057</v>
       </c>
       <c r="I10">
-        <v>4.257115871014303</v>
+        <v>4.074175361774281</v>
       </c>
       <c r="J10">
-        <v>11.39582028528453</v>
+        <v>10.8476707469485</v>
       </c>
       <c r="K10">
-        <v>15.07190384839227</v>
+        <v>13.74390674770122</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.88222218488449</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.061393668919836</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -893,51 +947,57 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>11.09974452785339</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>11.40964494078658</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.28553185602734</v>
+        <v>26.18179632544776</v>
       </c>
       <c r="C11">
-        <v>22.59301782036111</v>
+        <v>22.77238404860601</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>28.67684012655726</v>
+        <v>28.476043611497</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>37.31962725578305</v>
+        <v>35.59831012416041</v>
       </c>
       <c r="H11">
-        <v>4.61488316793092</v>
+        <v>4.510568465996</v>
       </c>
       <c r="I11">
-        <v>4.302926202607375</v>
+        <v>4.108593940565768</v>
       </c>
       <c r="J11">
-        <v>10.78795734343932</v>
+        <v>9.678898589454802</v>
       </c>
       <c r="K11">
-        <v>14.07091234441942</v>
+        <v>12.72879991289235</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.09701009029696</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.383093835260356</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -946,51 +1006,57 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>11.22985642645326</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>11.63732299089957</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.00476127648361</v>
+        <v>25.91483627281612</v>
       </c>
       <c r="C12">
-        <v>21.99091775718637</v>
+        <v>22.03490376143929</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>22.72058397775288</v>
+        <v>22.50329131329377</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>34.71220694568568</v>
+        <v>33.58684001091552</v>
       </c>
       <c r="H12">
-        <v>5.389237384125631</v>
+        <v>5.304250345708791</v>
       </c>
       <c r="I12">
-        <v>4.282082294545074</v>
+        <v>4.088599323377288</v>
       </c>
       <c r="J12">
-        <v>10.21643266244033</v>
+        <v>8.945274241777625</v>
       </c>
       <c r="K12">
-        <v>13.22890334844537</v>
+        <v>11.98046483537742</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.58573672318607</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.780418670487935</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -999,51 +1065,57 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>11.40628997605392</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>11.8591774114266</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.34414911159852</v>
+        <v>25.35130519841873</v>
       </c>
       <c r="C13">
-        <v>21.10578622739577</v>
+        <v>21.10872485264466</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.80139518183742</v>
+        <v>16.56575858789072</v>
       </c>
       <c r="F13">
         <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>31.73424927951619</v>
+        <v>30.80393204576377</v>
       </c>
       <c r="H13">
-        <v>6.382533790015373</v>
+        <v>6.318455464374294</v>
       </c>
       <c r="I13">
-        <v>4.210004973270525</v>
+        <v>4.029657095812151</v>
       </c>
       <c r="J13">
-        <v>9.608083480491631</v>
+        <v>8.56111382600027</v>
       </c>
       <c r="K13">
-        <v>12.40987615304572</v>
+        <v>11.37263429594646</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.22207691392198</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.18741241386482</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1052,51 +1124,57 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>11.62387395936096</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.07151848083831</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.6961712764227</v>
+        <v>24.80931094920608</v>
       </c>
       <c r="C14">
-        <v>20.35413693884263</v>
+        <v>20.36783079972297</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.74521298233325</v>
+        <v>12.48782191695738</v>
       </c>
       <c r="F14">
         <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>29.42451701257764</v>
+        <v>28.45750674437401</v>
       </c>
       <c r="H14">
-        <v>7.166902475235033</v>
+        <v>7.115772399152968</v>
       </c>
       <c r="I14">
-        <v>4.138178542667896</v>
+        <v>3.972533095392549</v>
       </c>
       <c r="J14">
-        <v>9.160726258344432</v>
+        <v>8.423147437707502</v>
       </c>
       <c r="K14">
-        <v>11.84620790480833</v>
+        <v>11.00377785703964</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.02298700702517</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.772550900040058</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1105,51 +1183,57 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>11.79587259377718</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.21467510630893</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.4460194415982</v>
+        <v>24.60201305899242</v>
       </c>
       <c r="C15">
-        <v>20.11173910922957</v>
+        <v>20.1449018779633</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.77117352111812</v>
+        <v>11.50952897014777</v>
       </c>
       <c r="F15">
         <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>28.74985042842336</v>
+        <v>27.70063146553469</v>
       </c>
       <c r="H15">
-        <v>7.347210888000635</v>
+        <v>7.299579601030302</v>
       </c>
       <c r="I15">
-        <v>4.109105806326985</v>
+        <v>3.950194050625287</v>
       </c>
       <c r="J15">
-        <v>9.039423336364667</v>
+        <v>8.440574721917464</v>
       </c>
       <c r="K15">
-        <v>11.7049809749328</v>
+        <v>10.92996384835918</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.991540682294451</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.665659462653704</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1158,51 +1242,57 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>11.84436264754708</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.24638756608207</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.64414405124478</v>
+        <v>23.94255905386428</v>
       </c>
       <c r="C16">
-        <v>19.51399099148957</v>
+        <v>19.6887420140547</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.61797597995949</v>
+        <v>11.39296542512565</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>28.05010956410873</v>
+        <v>26.39228838272654</v>
       </c>
       <c r="H16">
-        <v>7.063004551734033</v>
+        <v>7.022233362342703</v>
       </c>
       <c r="I16">
-        <v>3.986887486783182</v>
+        <v>3.853949782139501</v>
       </c>
       <c r="J16">
-        <v>8.985354362133933</v>
+        <v>8.918645759939512</v>
       </c>
       <c r="K16">
-        <v>11.75541374961104</v>
+        <v>11.13749580687044</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.18915468297375</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.675099559442002</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1211,51 +1301,57 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>11.86370766946863</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.18614884379697</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.37639394971641</v>
+        <v>23.71340076586093</v>
       </c>
       <c r="C17">
-        <v>19.46553809086767</v>
+        <v>19.72284085135152</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.69222803271598</v>
+        <v>13.50484262475455</v>
       </c>
       <c r="F17">
         <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>28.79558131506402</v>
+        <v>26.78633279843882</v>
       </c>
       <c r="H17">
-        <v>6.375579545653999</v>
+        <v>6.334197385503118</v>
       </c>
       <c r="I17">
-        <v>3.930190979342157</v>
+        <v>3.808720305937396</v>
       </c>
       <c r="J17">
-        <v>9.184556271919947</v>
+        <v>9.313854404638995</v>
       </c>
       <c r="K17">
-        <v>12.08909289138625</v>
+        <v>11.47961402125929</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.4513941804488</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.88566390355996</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1264,51 +1360,57 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>11.78968976125886</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.07626769132529</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.57197649695126</v>
+        <v>23.87838925329843</v>
       </c>
       <c r="C18">
-        <v>19.88967420660761</v>
+        <v>20.21958298010367</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>18.23732491578039</v>
+        <v>18.07883836313624</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>30.93050811056726</v>
+        <v>28.61306633104576</v>
       </c>
       <c r="H18">
-        <v>5.354545987219797</v>
+        <v>5.304446207616642</v>
       </c>
       <c r="I18">
-        <v>3.926836126821552</v>
+        <v>3.805058082335085</v>
       </c>
       <c r="J18">
-        <v>9.636311384084975</v>
+        <v>9.792796438001668</v>
       </c>
       <c r="K18">
-        <v>12.73639861074308</v>
+        <v>12.0316475806749</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.84189969640494</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.328843635568662</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1317,51 +1419,57 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>11.6332710147475</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>11.90451529220158</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.09093172229744</v>
+        <v>24.32280346318592</v>
       </c>
       <c r="C19">
-        <v>20.69931343673033</v>
+        <v>21.09955159970117</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>24.5196108620749</v>
+        <v>24.37253217307746</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>33.86111175547325</v>
+        <v>31.24130577254353</v>
       </c>
       <c r="H19">
-        <v>4.405774557744634</v>
+        <v>4.337572871644159</v>
       </c>
       <c r="I19">
-        <v>3.978129458396654</v>
+        <v>3.848445508712069</v>
       </c>
       <c r="J19">
-        <v>10.23277811408898</v>
+        <v>10.32440758356267</v>
       </c>
       <c r="K19">
-        <v>13.55623684210108</v>
+        <v>12.69405741366972</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.29808530835892</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.901151822466482</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1370,51 +1478,57 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>11.45016597290333</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>11.71545018855406</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.53287828783864</v>
+        <v>25.575071799713</v>
       </c>
       <c r="C20">
-        <v>22.45732243893725</v>
+        <v>22.92195453463458</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>34.71445183648991</v>
+        <v>34.55039764925864</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>39.01360414948979</v>
+        <v>36.08741193201426</v>
       </c>
       <c r="H20">
-        <v>4.170573803091729</v>
+        <v>4.069447674449673</v>
       </c>
       <c r="I20">
-        <v>4.174043184062073</v>
+        <v>4.011007215785687</v>
       </c>
       <c r="J20">
-        <v>11.25047702676106</v>
+        <v>11.01123654876729</v>
       </c>
       <c r="K20">
-        <v>14.91080716470902</v>
+        <v>13.70683636229845</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.92995481288051</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.900710653184277</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1423,51 +1537,57 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>11.16237025863571</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>11.44036058910839</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.24210199197016</v>
+        <v>26.96648806608176</v>
       </c>
       <c r="C21">
-        <v>23.92997000023848</v>
+        <v>24.11615047081288</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>37.58120681260196</v>
+        <v>37.36613033146221</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>41.56412260661076</v>
+        <v>39.76561953147154</v>
       </c>
       <c r="H21">
-        <v>4.549983776740572</v>
+        <v>4.416960168109988</v>
       </c>
       <c r="I21">
-        <v>4.441137463453891</v>
+        <v>4.221055765063237</v>
       </c>
       <c r="J21">
-        <v>11.67303452294847</v>
+        <v>10.09904441986861</v>
       </c>
       <c r="K21">
-        <v>15.30476377787414</v>
+        <v>13.6251982941811</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.66739890621125</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.212065478516276</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1476,51 +1596,57 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>10.98198805215194</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>11.38346752290671</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.28957637066697</v>
+        <v>27.80822292513376</v>
       </c>
       <c r="C22">
-        <v>24.77807478765482</v>
+        <v>24.76793191309622</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>38.94580729239102</v>
+        <v>38.69743644678969</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>43.06115501505952</v>
+        <v>42.06682884981362</v>
       </c>
       <c r="H22">
-        <v>4.773873655693606</v>
+        <v>4.620524916642328</v>
       </c>
       <c r="I22">
-        <v>4.606704152904517</v>
+        <v>4.349023523372225</v>
       </c>
       <c r="J22">
-        <v>11.92321243838852</v>
+        <v>9.440049616878891</v>
       </c>
       <c r="K22">
-        <v>15.54238525222804</v>
+        <v>13.54103455334064</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.47599857893205</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.394436220414494</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1529,51 +1655,57 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>10.87116380580513</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>11.3623503187914</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.75661516207009</v>
+        <v>27.40514101160201</v>
       </c>
       <c r="C23">
-        <v>24.3113156958605</v>
+        <v>24.44364309360299</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>38.22365196570481</v>
+        <v>37.99459576896807</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>42.34227364280222</v>
+        <v>40.7582427557006</v>
       </c>
       <c r="H23">
-        <v>4.655477977101227</v>
+        <v>4.513945844256669</v>
       </c>
       <c r="I23">
-        <v>4.517418456942075</v>
+        <v>4.280074239444649</v>
       </c>
       <c r="J23">
-        <v>11.80676913019866</v>
+        <v>9.936183621167682</v>
       </c>
       <c r="K23">
-        <v>15.45031350404135</v>
+        <v>13.6497698813108</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.61875410285484</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>9.352103655538849</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1582,51 +1714,57 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>10.92560839197774</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>11.35957712031207</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.60999490000232</v>
+        <v>25.6444598217392</v>
       </c>
       <c r="C24">
-        <v>22.50515642875767</v>
+        <v>22.97933763575169</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>35.37942653366166</v>
+        <v>35.21478184508284</v>
       </c>
       <c r="F24">
         <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>39.42996223294799</v>
+        <v>36.45913304817213</v>
       </c>
       <c r="H24">
-        <v>4.199053837713701</v>
+        <v>4.097171572557041</v>
       </c>
       <c r="I24">
-        <v>4.177451796880616</v>
+        <v>4.011388195718391</v>
       </c>
       <c r="J24">
-        <v>11.33992479624594</v>
+        <v>11.0994894537007</v>
       </c>
       <c r="K24">
-        <v>15.05781226894038</v>
+        <v>13.83388701700746</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.01951923259107</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.004867424800517</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1635,51 +1773,57 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>11.1424746454691</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>11.41498819809918</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.0918750885848</v>
+        <v>23.31132513443711</v>
       </c>
       <c r="C25">
-        <v>20.41387511742689</v>
+        <v>20.82872903825004</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>32.07818174089427</v>
+        <v>31.96067808679358</v>
       </c>
       <c r="F25">
         <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>36.14767028958551</v>
+        <v>33.45453909737527</v>
       </c>
       <c r="H25">
-        <v>3.690681662717911</v>
+        <v>3.618139351377675</v>
       </c>
       <c r="I25">
-        <v>3.803133518190454</v>
+        <v>3.694787509527251</v>
       </c>
       <c r="J25">
-        <v>10.84081544806377</v>
+        <v>10.83331455907603</v>
       </c>
       <c r="K25">
-        <v>14.66165387655773</v>
+        <v>13.6907634828098</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.21872792095838</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.37080169366952</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1688,9 +1832,15 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>11.38269536214866</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>11.56101672534601</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
